--- a/Base/Teams/Football Team/Team Data.xlsx
+++ b/Base/Teams/Football Team/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2</t>
-  </si>
-  <si>
-    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8</t>
-  </si>
-  <si>
-    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4</t>
-  </si>
-  <si>
-    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32</t>
+    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3</t>
+  </si>
+  <si>
+    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6</t>
+  </si>
+  <si>
+    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1</t>
+  </si>
+  <si>
+    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62</t>
-  </si>
-  <si>
-    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27</t>
+    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64</t>
+  </si>
+  <si>
+    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24</t>
   </si>
   <si>
     <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31</t>
   </si>
   <si>
-    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33</t>
-  </si>
-  <si>
-    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0</t>
+    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53</t>
+  </si>
+  <si>
+    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0</t>
+  </si>
+  <si>
+    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -677,19 +677,19 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>366</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2">
         <v>44</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G3">
         <v>59</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="M3">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="N3">
         <v>39</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>838</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -976,7 +976,7 @@
         <v>322</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>35</v>
@@ -996,37 +996,37 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J3">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="M3">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="N3">
         <v>45</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>795</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -1245,10 +1245,10 @@
         <v>42</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2">
         <v>20</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1371,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Football Team/Team Data.xlsx
+++ b/Base/Teams/Football Team/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3</t>
-  </si>
-  <si>
-    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6</t>
-  </si>
-  <si>
-    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1</t>
-  </si>
-  <si>
-    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7</t>
+    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0</t>
+  </si>
+  <si>
+    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7</t>
+  </si>
+  <si>
+    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5</t>
+  </si>
+  <si>
+    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64</t>
-  </si>
-  <si>
-    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24</t>
-  </si>
-  <si>
-    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31</t>
-  </si>
-  <si>
-    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53</t>
-  </si>
-  <si>
-    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0</t>
-  </si>
-  <si>
-    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13</t>
+    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64 57 58</t>
+  </si>
+  <si>
+    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24 21 15</t>
+  </si>
+  <si>
+    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31 28 20</t>
+  </si>
+  <si>
+    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53 59 57 55 53 42 41 49</t>
+  </si>
+  <si>
+    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0 0 4 0 1 0 0 0</t>
+  </si>
+  <si>
+    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -677,10 +677,10 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,28 +689,28 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="M2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="N2">
         <v>38</v>
       </c>
       <c r="O2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2">
-        <v>980</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>322</v>
       </c>
       <c r="N3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -952,28 +952,28 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>512</v>
+        <v>551</v>
       </c>
       <c r="M2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="N2">
         <v>29</v>
@@ -985,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="Q2">
-        <v>919</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>326</v>
       </c>
       <c r="N3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2">
         <v>82</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>44</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1431,13 +1431,13 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Football Team/Team Data.xlsx
+++ b/Base/Teams/Football Team/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0</t>
-  </si>
-  <si>
-    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7</t>
-  </si>
-  <si>
-    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5</t>
-  </si>
-  <si>
-    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4</t>
+    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 0 2 6 5 2 4 1 3 3 5 4 -1 -1 8 -6 2 30 0 1 0 13</t>
+  </si>
+  <si>
+    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 19 7 6 46 5 1 7 5 9 7 5 12 29 5 6 1 13 10 3 -2</t>
+  </si>
+  <si>
+    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 4 5 4 4 4 6 5 8 1 4 19 0 9 4 4 10 3 1 8 8 38 1 9 12 7 -3 4 3 15 4 2 3 4 4 0 8 4 -3 1</t>
+  </si>
+  <si>
+    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 5 -1 19 28 16 45 6 5 8 17 21 20 5 9 7 9 7 34 19 17</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64 57 58</t>
-  </si>
-  <si>
-    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24 21 15</t>
-  </si>
-  <si>
-    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31 28 20</t>
-  </si>
-  <si>
-    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53 59 57 55 53 42 41 49</t>
-  </si>
-  <si>
-    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0 0 4 0 1 0 0 0</t>
-  </si>
-  <si>
-    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13 0 0 0 0 0 0</t>
+    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64 57 58 65 59 62</t>
+  </si>
+  <si>
+    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24 21 15 31 23 17</t>
+  </si>
+  <si>
+    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31 28 20 47 28</t>
+  </si>
+  <si>
+    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53 59 57 55 53 42 41 49 36 60 44 46 54</t>
+  </si>
+  <si>
+    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0 0 4 0 1 0 0 0 0 11 0 1 10</t>
+  </si>
+  <si>
+    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>381</v>
       </c>
       <c r="N2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>25</v>
@@ -721,37 +721,37 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="M3">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="N3">
         <v>44</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>905</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>16</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>344</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2">
         <v>997</v>
@@ -996,37 +996,37 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="M3">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="N3">
         <v>49</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>853</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2">
         <v>27</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Football Team/Team Data.xlsx
+++ b/Base/Teams/Football Team/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 0 2 6 5 2 4 1 3 3 5 4 -1 -1 8 -6 2 30 0 1 0 13</t>
-  </si>
-  <si>
-    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 19 7 6 46 5 1 7 5 9 7 5 12 29 5 6 1 13 10 3 -2</t>
-  </si>
-  <si>
-    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 4 5 4 4 4 6 5 8 1 4 19 0 9 4 4 10 3 1 8 8 38 1 9 12 7 -3 4 3 15 4 2 3 4 4 0 8 4 -3 1</t>
-  </si>
-  <si>
-    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 5 -1 19 28 16 45 6 5 8 17 21 20 5 9 7 9 7 34 19 17</t>
+    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 0 2 6 5 2 4 1 3 3 5 4 -1 -1 8 -6 2 30 0 1 0 13 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3</t>
+  </si>
+  <si>
+    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 19 7 6 46 5 1 7 5 9 7 5 12 29 5 6 1 13 10 3 -2 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12</t>
+  </si>
+  <si>
+    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 4 5 4 4 4 6 5 8 1 4 19 0 9 4 4 10 3 1 8 8 38 1 9 12 7 -3 4 3 15 4 2 3 4 4 0 8 4 -3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2</t>
+  </si>
+  <si>
+    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 5 -1 19 28 16 45 6 5 8 17 21 20 5 9 7 9 7 34 19 17 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64 57 58 65 59 62</t>
-  </si>
-  <si>
-    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24 21 15 31 23 17</t>
-  </si>
-  <si>
-    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31 28 20 47 28</t>
-  </si>
-  <si>
-    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53 59 57 55 53 42 41 49 36 60 44 46 54</t>
-  </si>
-  <si>
-    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0 0 4 0 1 0 0 0 0 11 0 1 10</t>
-  </si>
-  <si>
-    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13 0 0 0 0 0 0 0 0</t>
+    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64 57 58 65 59 62 63</t>
+  </si>
+  <si>
+    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24 21 15 31 23 17 20</t>
+  </si>
+  <si>
+    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31 28 20 47 28 0</t>
+  </si>
+  <si>
+    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53 59 57 55 53 42 41 49 36 60 44 46 54 50 56 42 53 53 54</t>
+  </si>
+  <si>
+    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0 0 4 0 1 0 0 0 0 11 0 1 10 21 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13 0 0 0 0 0 0 0 0 7 7 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,16 +668,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G2">
         <v>102</v>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>381</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>1045</v>
@@ -721,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -730,28 +730,28 @@
         <v>60</v>
       </c>
       <c r="F3">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="M3">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="N3">
         <v>44</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>960</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -952,19 +952,19 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>344</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2">
         <v>997</v>
@@ -996,37 +996,37 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J3">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="M3">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="N3">
         <v>49</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>927</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>18</v>

--- a/Base/Teams/Football Team/Team Data.xlsx
+++ b/Base/Teams/Football Team/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 0 2 6 5 2 4 1 3 3 5 4 -1 -1 8 -6 2 30 0 1 0 13 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3</t>
-  </si>
-  <si>
-    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 19 7 6 46 5 1 7 5 9 7 5 12 29 5 6 1 13 10 3 -2 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12</t>
-  </si>
-  <si>
-    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 4 5 4 4 4 6 5 8 1 4 19 0 9 4 4 10 3 1 8 8 38 1 9 12 7 -3 4 3 15 4 2 3 4 4 0 8 4 -3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2</t>
-  </si>
-  <si>
-    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 5 -1 19 28 16 45 6 5 8 17 21 20 5 9 7 9 7 34 19 17 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9</t>
+    <t>2 -3 8 0 2 5 7 1 20 -3 4 -2 0 1 0 1 0 3 -1 1 5 3 1 3 1 0 3 1 2 1 0 -1 6 9 8 9 -1 4 8 4 7 3 8 0 13 11 2 2 9 -1 11 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 1 10 2 2 -1 3 7 -1 3 9 1 -1 2 9 5 3 7 3 2 0 1 1 5 0 3 7 -2 3 0 1 4 4 4 6 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 5 5 8 1 40 2 2 7 12 6 3 5 13 5 9 -1 4 5 8 5 12 5 3 1 5 3 10 2 1 3 3 3 4 -3 11 2 2 5 1 10 -1 6 11 1 1 5 4 3 7 10 3 6 27 2 2 -3 1 2 3 1 12 3 2 4 2 2 5 1 5 14 6 2 6 3 1 3 6 5 4 1 19 16 3 2 1 2 6 2 4 16 10 2 3 13 8 -1 -5 1 3 11 4 2 2 6 1 5 5 3 3 3 6 13 6 10 1 2 -1 4 1 3 2 23 1 15 2 7 0 1 3 37 1 3 8 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 3 11 3 5 3 3 7 -2 2 3 9 17 9 0 17 -1 5 3 5 3 1 0 2 2 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 2 5 7 5 10 6 13 3 4 0 22 9 3 -1 -6 3 4 7 12 3 3 1 6 18 0 -6 -3 11 0 4 3 0 3 1 3 12 2 5 2 13 0 4 9 5 1 3 -4 4 -1 2 10 2 2 5 2 11 4 1 10 3 3 3 3 -1 13 3 -1 8 4 4 4 27 -3 2 3 6 -1 8 3 5 6 2 6 6 6 6 3 0 -2 0 6 4 5 2 5 9 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 8 2 4 2 7 -1 4 1 -1 11 4 -4 7 3 1 7 4 7 6 0 1 0 5 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 8 3 0 1 8 5 1 -7 13 5 3 3 1 4 1 2 3 3 2 5 6 16 1 9 2 11 2 -2 -2 16 2 1 4 8 1 3 5 3 3 2 2 15 1 7 8 6 4 4 11 2 5 3 8 5 4 5 2 2 6 1 4 38 2 6 4 5 3 0 2 6 27 12 5 2 8 7 13 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 1 3 1 5 -1 -8 10 5 2 3 15 4 4 -5 -1 -3 12 9 1 1 1 2 3 4 7 3 2 4 2 -1 5 0 3 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 0 2 6 5 2 4 1 3 3 5 4 -1 -1 8 -6 2 30 0 1 0 13 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3 3 3 11 3 6 1 1 3 4 4 5 8 1 4 3 8 0 4 10 1 8 3</t>
+  </si>
+  <si>
+    <t>16 2 14 21 11 7 6 6 1 17 19 4 3 8 14 10 19 4 8 2 25 9 -3 3 5 13 18 3 15 10 7 26 10 24 14 1 30 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 9 17 -2 3 11 8 18 11 1 13 -1 40 4 3 12 0 7 4 4 19 4 13 8 8 11 11 9 16 4 39 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 7 1 9 5 26 52 6 7 15 13 5 22 12 8 6 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 22 19 9 7 3 7 0 8 6 4 10 6 8 7 3 13 6 11 1 20 19 14 4 11 -1 13 8 8 23 27 5 26 5 11 11 11 10 0 8 42 2 3 4 11 7 14 3 25 12 11 7 7 6 -1 7 28 4 6 4 6 9 8 5 5 12 5 9 15 9 20 8 10 8 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 3 2 11 13 5 9 9 5 13 12 8 -1 9 5 5 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 -2 4 17 12 0 8 50 14 3 28 7 5 3 8 4 19 7 4 5 9 23 7 13 29 6 1 10 18 16 5 5 6 5 4 5 4 15 6 6 6 13 5 11 6 3 6 5 36 24 18 10 5 5 8 12 7 12 29 12 19 6 1 8 23 4 3 5 1 16 11 16 10 2 6 5 12 7 11 9 2 34 11 17 17 -2 4 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 0 11 17 10 73 14 7 4 15 1 11 15 37 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 20 9 18 8 7 17 13 7 16 10 7 -7 9 3 6 4 6 9 26 27 9 13 6 3 7 12 2 7 3 5 6 6 6 4 16 39 10 14 4 -4 -4 9 12 4 -2 7 6 12 40 0 5 5 14 4 17 28 9 12 5 7 10 3 11 2 19 10 3 12 13 6 15 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 8 14 13 4 8 11 1 20 22 7 9 8 14 1 15 6 18 21 9 6 16 6 5 6 6 30 7 39 6 4 5 12 12 7 13 4 15 10 18 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 19 7 6 46 5 1 7 5 9 7 5 12 29 5 6 1 13 10 3 -2 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12 16 10 24 8 25 12 2 12 12 11 5 6 18 9 4 11 1 -4 2 8 10 4 5 9 12 5 10</t>
+  </si>
+  <si>
+    <t>5 3 1 7 2 2 2 1 -3 -5 13 7 4 10 3 2 3 4 13 8 2 -2 7 4 2 14 4 3 -3 6 0 2 3 3 5 1 21 4 6 4 1 4 16 10 4 3 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 4 1 8 1 2 5 1 1 5 1 50 1 2 7 2 3 1 3 4 0 13 8 6 9 11 -2 0 14 5 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 2 6 2 5 1 1 4 5 0 4 0 1 12 1 6 4 6 5 2 0 6 0 0 4 6 0 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 5 11 16 1 9 2 13 4 0 0 3 0 2 2 2 3 -1 17 9 6 1 4 3 5 10 0 1 7 7 0 3 2 8 0 2 19 2 -5 4 8 -1 11 2 2 2 2 6 3 8 3 -2 5 4 3 0 0 7 -1 2 4 0 0 1 1 9 1 -2 9 2 5 3 9 9 4 11 1 1 6 1 0 6 -2 2 -2 6 4 8 1 14 3 0 9 0 1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 6 4 0 4 1 7 2 3 7 5 45 1 3 0 3 3 1 7 3 7 0 1 -2 -2 -1 3 1 -3 3 2 6 2 0 0 0 9 1 8 1 6 0 3 6 7 4 3 20 1 4 3 6 3 1 1 5 0 4 9 7 7 -2 6 0 4 3 22 3 8 4 3 2 3 3 6 6 5 17 8 2 3 2 13 1 11 13 3 3 1 7 -3 1 4 3 2 0 7 2 2 0 14 5 2 3 0 4 1 2 9 -3 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 0 4 6 8 1 -2 4 4 8 2 3 4 3 2 2 0 3 0 7 6 5 1 6 9 1 2 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 2 1 5 3 1 23 2 10 5 3 12 3 3 0 11 2 1 8 3 -2 1 7 2 0 6 3 3 17 3 6 1 6 4 0 5 11 4 3 3 3 10 5 2 -1 1 3 0 3 9 15 2 2 13 2 1 5 3 2 0 2 0 -1 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 5 6 0 3 5 8 2 1 3 4 8 6 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 -1 2 7 5 0 0 1 3 0 1 12 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 4 5 4 4 4 6 5 8 1 4 19 0 9 4 4 10 3 1 8 8 38 1 9 12 7 -3 4 3 15 4 2 3 4 4 0 8 4 -3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2 0 6 6 -3 7 4 3 0 3 -3 22 3 6 4 2 0 1 14 13 5 4 2 8 0 1 7 4 2 3</t>
+  </si>
+  <si>
+    <t>16 19 12 5 7 55 -2 0 11 7 10 34 -4 12 23 6 3 27 6 -6 10 4 7 8 4 9 12 4 2 10 8 5 54 3 10 8 5 49 0 6 3 -1 9 4 25 6 13 8 20 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 10 1 33 31 3 25 13 9 18 22 4 4 10 10 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 21 8 10 23 5 9 -4 1 9 18 1 11 5 4 14 10 4 18 6 6 8 32 7 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 5 55 4 9 27 19 8 6 2 4 8 26 4 5 18 15 5 0 13 9 5 10 10 9 18 9 5 6 6 5 13 -5 11 12 12 19 8 9 25 5 15 11 2 4 5 8 5 11 14 5 25 3 10 7 54 7 0 9 7 9 9 1 4 1 19 3 7 7 7 2 6 4 6 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 16 6 6 5 17 18 4 11 8 12 12 16 10 -1 13 5 16 6 9 6 12 14 7 19 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 9 8 1 16 -1 1 44 0 14 13 10 12 14 14 10 4 22 3 3 15 9 7 4 15 30 7 0 5 10 5 6 6 15 17 12 15 36 4 5 27 22 19 24 13 13 13 7 23 17 8 20 19 35 16 10 6 9 11 -3 7 2 11 4 18 16 10 22 1 6 17 4 17 11 7 11 23 6 19 17 3 17 7 19 20 9 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 23 11 13 1 28 3 7 9 7 17 4 7 14 18 2 41 7 13 22 11 5 11 9 5 6 13 10 11 6 5 19 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 4 11 72 20 11 10 12 49 14 -4 11 12 6 32 19 6 20 9 19 27 49 3 5 7 27 19 17 14 9 10 5 13 9 5 12 13 2 9 0 3 11 5 21 19 6 12 6 24 15 3 4 12 5 0 12 1 10 3 15 11 7 13 6 19 5 10 2 20 4 10 26 4 25 17 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 2 3 29 9 8 3 6 7 11 4 5 14 15 8 6 2 15 4 0 4 3 40 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 5 -1 19 28 16 45 6 5 8 17 21 20 5 9 7 9 7 34 19 17 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9 30 5 12 14 5 19 18 5 8 8 18 13 -3 27 12 13 10</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64 57 58 65 59 62 63</t>
-  </si>
-  <si>
-    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24 21 15 31 23 17 20</t>
-  </si>
-  <si>
-    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31 28 20 47 28 0</t>
-  </si>
-  <si>
-    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53 59 57 55 53 42 41 49 36 60 44 46 54 50 56 42 53 53 54</t>
-  </si>
-  <si>
-    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0 0 4 0 1 0 0 0 0 11 0 1 10 21 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13 0 0 0 0 0 0 0 0 7 7 0 0</t>
+    <t>68 77 61 66 70 56 59 65 64 50 67 63 61 41 66 65 70 68 73 58 54 66 61 64 62 62 60 64 57 58 65 59 62 63 66 38</t>
+  </si>
+  <si>
+    <t>20 31 12 67 30 26 32 29 18 8 19 23 20 0 24 32 22 27 23 17 19 34 21 27 27 27 19 24 21 15 31 23 17 20 21 0</t>
+  </si>
+  <si>
+    <t>14 13 10 20 28 23 22 23 4 21 14 25 21 24 20 19 46 24 17 21 25 18 23 29 15 28 22 20 22 22 31 16 31 18 21 27 16 23 21 0 19 28 23 1 22 26 15 23 19 30 24 25 23 28 19 23 30 12 31 28 20 47 28 0 34 23</t>
+  </si>
+  <si>
+    <t>47 51 48 43 49 56 51 51 53 52 30 60 38 32 55 60 45 51 49 41 43 47 41 53 42 61 52 44 58 57 56 55 38 38 54 56 30 47 52 55 55 55 35 60 57 45 28 60 36 52 54 58 55 48 31 54 54 52 46 44 54 41 40 49 65 45 45 47 48 48 28 50 28 52 53 43 56 45 37 55 48 50 47 52 42 55 38 48 39 45 56 51 47 66 60 55 51 66 44 45 56 49 34 48 37 53 47 33 54 47 43 53 59 57 55 53 42 41 49 36 60 44 46 54 50 56 42 53 53 54 38 46</t>
+  </si>
+  <si>
+    <t>0 0 8 0 0 0 11 4 1 0 0 0 0 0 11 0 0 10 5 13 0 0 0 16 3 0 8 2 10 0 3 0 0 0 6 0 0 6 0 10 9 0 0 9 0 0 0 17 0 11 0 0 2 0 0 3 0 10 0 15 3 0 0 0 0 15 3 3 0 8 0 7 0 9 0 0 0 3 0 11 8 0 0 6 33 0 0 5 2 4 13 14 2 0 31 25 0 15 10 4 10 0 0 0 0 0 0 0 6 0 0 0 0 4 0 1 0 0 0 0 11 0 1 10 21 0 0 0 0 0 0 7</t>
+  </si>
+  <si>
+    <t>2 0 0 11 4 12 4 1 0 0 1 0 19 3 -3 0 0 13 0 0 0 0 2 0 0 0 3 0 0 0 0 12 0 0 0 0 10 0 3 0 0 12 10 0 14 0 0 0 0 0 22 0 0 0 14 0 0 0 0 0 11 -1 0 0 0 0 0 20 0 0 0 0 0 14 8 0 0 0 0 0 0 6 0 0 0 0 0 10 0 0 0 0 0 0 12 0 0 10 0 0 0 0 0 0 0 0 0 0 0 8 0 0 16 0 13 0 0 0 0 0 0 0 0 7 7 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,28 +689,28 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>592</v>
+        <v>627</v>
       </c>
       <c r="M2">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="N2">
         <v>45</v>
       </c>
       <c r="O2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2">
         <v>26</v>
       </c>
       <c r="Q2">
-        <v>1045</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>65</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J3">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>357</v>
       </c>
       <c r="N3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>17</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="M2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="N2">
         <v>35</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>997</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1005,19 +1005,19 @@
         <v>66</v>
       </c>
       <c r="F3">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>376</v>
       </c>
       <c r="N3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
+        <v>47</v>
+      </c>
+      <c r="K2">
         <v>45</v>
-      </c>
-      <c r="K2">
-        <v>43</v>
       </c>
       <c r="L2">
         <v>27</v>
@@ -1251,10 +1251,10 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -1368,10 +1368,10 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
